--- a/data/cleaned_data/2015_FL.xlsx
+++ b/data/cleaned_data/2015_FL.xlsx
@@ -22,7 +22,7 @@
     <t>County</t>
   </si>
   <si>
-    <t>fatalaties</t>
+    <t>fatalities</t>
   </si>
   <si>
     <t>injuries</t>
@@ -2663,6 +2663,9 @@
       <c r="E59" t="s">
         <v>239</v>
       </c>
+      <c r="F59">
+        <v>226362</v>
+      </c>
       <c r="G59" t="s">
         <v>248</v>
       </c>
@@ -2685,6 +2688,9 @@
       </c>
       <c r="E60" t="s">
         <v>240</v>
+      </c>
+      <c r="F60">
+        <v>297282</v>
       </c>
       <c r="G60" t="s">
         <v>269</v>
